--- a/admin/report.xlsx
+++ b/admin/report.xlsx
@@ -26,7 +26,7 @@
     <t>Кол-во часов</t>
   </si>
   <si>
-    <t>Чародеев Иван Андреевич</t>
+    <t>Денисов Сергей Михайлович</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/admin/report.xlsx
+++ b/admin/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Занятость преподавателей за предыдущий месяц</t>
   </si>
@@ -27,6 +27,15 @@
   </si>
   <si>
     <t>Денисов Сергей Михайлович</t>
+  </si>
+  <si>
+    <t>Грач Владислав Андреевич</t>
+  </si>
+  <si>
+    <t>Чародеев Иван Андреевич</t>
+  </si>
+  <si>
+    <t>Петрович Алексей Александрович</t>
   </si>
 </sst>
 </file>
@@ -365,7 +374,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,6 +405,30 @@
       </c>
       <c r="B3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/admin/report.xlsx
+++ b/admin/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Занятость преподавателей за предыдущий месяц</t>
   </si>
@@ -29,13 +29,19 @@
     <t>Денисов Сергей Михайлович</t>
   </si>
   <si>
+    <t>Чародеев Иван Андреевич</t>
+  </si>
+  <si>
     <t>Грач Владислав Андреевич</t>
   </si>
   <si>
-    <t>Чародеев Иван Андреевич</t>
-  </si>
-  <si>
     <t>Петрович Алексей Александрович</t>
+  </si>
+  <si>
+    <t>Шнуров Сергей Иванович</t>
+  </si>
+  <si>
+    <t>Daugherty Marvin Hoffman Price</t>
   </si>
 </sst>
 </file>
@@ -374,7 +380,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -412,7 +418,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +426,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,6 +434,22 @@
         <v>6</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>0</v>
       </c>
     </row>

--- a/admin/report.xlsx
+++ b/admin/report.xlsx
@@ -29,19 +29,19 @@
     <t>Денисов Сергей Михайлович</t>
   </si>
   <si>
+    <t>Грач Владислав Андреевич</t>
+  </si>
+  <si>
     <t>Чародеев Иван Андреевич</t>
   </si>
   <si>
-    <t>Грач Владислав Андреевич</t>
+    <t>Шнуров Сергей Иванович</t>
   </si>
   <si>
     <t>Петрович Алексей Александрович</t>
   </si>
   <si>
-    <t>Шнуров Сергей Иванович</t>
-  </si>
-  <si>
-    <t>Daugherty Marvin Hoffman Price</t>
+    <t>Герасимова Дионисия Федосеевна</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/admin/report.xlsx
+++ b/admin/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Занятость преподавателей за предыдущий месяц</t>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t>Денисов Сергей Михайлович</t>
-  </si>
-  <si>
-    <t>Грач Владислав Андреевич</t>
   </si>
   <si>
     <t>Чародеев Иван Андреевич</t>
@@ -380,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,7 +423,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,14 +439,6 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
         <v>6</v>
       </c>
     </row>
